--- a/Post_Flight_Datasheet_Flight_2_DD_14_3_2018.xlsx
+++ b/Post_Flight_Datasheet_Flight_2_DD_14_3_2018.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ErikD\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ErikD\Documents\OneDrive stuff\Documenten\GitHub\SVV-Flight-Dynamics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="5640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
